--- a/biology/Botanique/Anthyllis_vulneraria_subsp._alpestris/Anthyllis_vulneraria_subsp._alpestris.xlsx
+++ b/biology/Botanique/Anthyllis_vulneraria_subsp._alpestris/Anthyllis_vulneraria_subsp._alpestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthyllide alpestre
 Anthyllis vulneraria subsp. alpestris, communément appelé l’Anthyllide alpestre, est une sous-espèce d’Anthyllis vulneraria, plante herbacée de la famille des Fabacées.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante basse de 10 à 30 cm de hauteur. L'inflorescence est un racème capituliforme de couleur jaune, en forme de boule massive. Chaque fleur forme un tube jaune pris dans le calice plus pâle et poilu. Le fruit est une gousse.
 Les feuilles radicales sont réduites à une grande foliole terminale unique, elliptique et charnue.
@@ -547,7 +561,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Période de floraison : de mai à août.
 Hermaphrodite.
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : pelouses alpines, roches calcaires sèches.
 </t>
@@ -611,7 +629,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aire de répartition : France (Jura, Alpes, Pyrénées), Sud de l'Allemagne.
 </t>
@@ -642,7 +662,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Vulnéraire : utilisé en cataplasme sur les plaies.
 </t>
